--- a/walkowiak.xlsx
+++ b/walkowiak.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>czas wykonania</t>
   </si>
   <si>
-    <t>równoległy</t>
-  </si>
-  <si>
-    <t>sekwencyjny</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -51,20 +45,41 @@
     <t>Tclk</t>
   </si>
   <si>
-    <t>wskazniki trafien</t>
-  </si>
-  <si>
     <t>liczba instrukcji</t>
   </si>
   <si>
     <t>liczba cykli LCP</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>DTLB</t>
+  </si>
+  <si>
+    <t>przyspieszenie</t>
+  </si>
+  <si>
+    <t>efektywność</t>
+  </si>
+  <si>
+    <t>wskazniki braku trafien</t>
+  </si>
+  <si>
+    <t>sekw 3 pętle</t>
+  </si>
+  <si>
+    <t>równoległy 3 pętle</t>
+  </si>
+  <si>
+    <t>6 pętli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +87,25 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,19 +117,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Złe" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,151 +430,774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.125" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" customWidth="1"/>
+    <col min="1" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="15" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3">
+    <row r="1" spans="1:24">
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>600</v>
+      </c>
+      <c r="K2">
+        <v>800</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>200</v>
+      </c>
+      <c r="O2">
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <v>600</v>
+      </c>
+      <c r="Q2">
+        <v>800</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3">
         <f>1/3400000000</f>
         <v>2.9411764705882351E-10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.16</v>
-      </c>
-      <c r="C2">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <f>(2*POWER(600,3))/((B2)*1000000)</f>
-        <v>2700</v>
-      </c>
-      <c r="C3">
-        <f>(2*POWER(700,3))/((C2)*1000000)</f>
-        <v>939.72602739726028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E3">
+        <v>5.9329999999999998</v>
+      </c>
+      <c r="F3">
+        <v>14.77</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K3">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="L3">
+        <v>13.459</v>
+      </c>
+      <c r="N3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.156</v>
+      </c>
+      <c r="R3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1950960492</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4">
+        <f>(2*POWER(B2,3))/((B3)*1000000)</f>
+        <v>210.52631578947367</v>
+      </c>
+      <c r="C4">
+        <f>(2*POWER(C2,3))/((C3)*1000000)</f>
+        <v>766.46706586826349</v>
+      </c>
+      <c r="D4">
+        <f>(2*POWER(D2,3))/((D3)*1000000)</f>
+        <v>517.98561151079139</v>
+      </c>
+      <c r="E4">
+        <f>(2*POWER(E2,3))/((E3)*1000000)</f>
+        <v>172.59396595314342</v>
+      </c>
+      <c r="F4">
+        <f>(2*POWER(F2,3))/((F3)*1000000)</f>
+        <v>135.40961408259986</v>
+      </c>
+      <c r="H4">
+        <f>(2*POWER(H2,3))/((H3)*1000000)</f>
+        <v>320</v>
+      </c>
+      <c r="I4">
+        <f>(2*POWER(I2,3))/((I3)*1000000)</f>
+        <v>357.54189944134077</v>
+      </c>
+      <c r="J4">
+        <f>(2*POWER(J2,3))/((J3)*1000000)</f>
+        <v>621.58273381294964</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:L4" si="0">(2*POWER(K2,3))/((K3)*1000000)</f>
+        <v>183.94108137237291</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>148.59945018203433</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:R4" si="1">(2*POWER(N2,3))/((N3)*1000000)</f>
+        <v>444.44444444444446</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>2206.8965517241381</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>4235.2941176470586</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>6564.1025641025644</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <f>(1/B6)*B4</f>
-        <v>2756707175.1960001</v>
-      </c>
-      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>91504599</v>
+      </c>
+      <c r="C5">
+        <v>640287522</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1907960492</v>
+      </c>
+      <c r="E5">
+        <v>4641000000</v>
+      </c>
+      <c r="F5">
+        <v>8965704510</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <v>72804508</v>
+      </c>
+      <c r="I5" s="4">
+        <v>523152215</v>
+      </c>
+      <c r="J5">
+        <v>1261848549</v>
+      </c>
+      <c r="K5">
+        <v>2703846595</v>
+      </c>
+      <c r="L5">
+        <v>5121004079</v>
+      </c>
+      <c r="N5">
+        <v>79537815</v>
+      </c>
+      <c r="O5" s="4">
+        <v>251185683</v>
+      </c>
+      <c r="P5" s="4">
+        <v>682174657</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1155028220</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2377258858</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>76079921</v>
+      </c>
+      <c r="C6">
+        <v>634258866</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3157830500</v>
+      </c>
+      <c r="E6">
+        <v>22387601372</v>
+      </c>
+      <c r="F6">
+        <v>56158125874</v>
+      </c>
+      <c r="H6" s="4">
+        <v>56673244</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1000538258</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2347499099</v>
+      </c>
+      <c r="K6">
+        <v>20703417053</v>
+      </c>
+      <c r="L6">
+        <v>50592048697</v>
+      </c>
+      <c r="N6">
+        <v>69925143</v>
+      </c>
+      <c r="O6">
+        <v>140736000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>297186071</v>
+      </c>
+      <c r="Q6">
+        <v>474574632</v>
+      </c>
+      <c r="R6">
+        <v>1083816679</v>
+      </c>
+      <c r="T6">
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="U6">
         <v>2.87</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <f>1/1.413</f>
-        <v>0.70771408351026188</v>
-      </c>
-      <c r="C6">
-        <f>1/1.809</f>
-        <v>0.55279159756771701</v>
-      </c>
-      <c r="G6">
-        <f>(2*POWER(G5,3))/((H5)*1000000000)</f>
-        <v>0.69686411149825789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <f>B5/B6</f>
+        <v>1.2027430864445825</v>
+      </c>
+      <c r="C7">
+        <f>C5/C6</f>
+        <v>1.0095050401707746</v>
+      </c>
+      <c r="D7">
+        <f>D5/D6</f>
+        <v>0.60419977956384929</v>
+      </c>
+      <c r="E7">
+        <f>E5/E6</f>
+        <v>0.20730224390204047</v>
+      </c>
+      <c r="F7">
+        <f>F5/F6</f>
+        <v>0.15965106332280452</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:L7" si="2">H5/H6</f>
+        <v>1.2846363267999976</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.52287077562205519</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.53752887468094401</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0.13059904981280387</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.10122152019717803</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7" si="3">N5/N6</f>
+        <v>1.1374708951256631</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7" si="4">O5/O6</f>
+        <v>1.7848004988062756</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7" si="5">P5/P6</f>
+        <v>2.2954462660532968</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="6">Q5/Q6</f>
+        <v>2.4338178699783515</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7" si="7">R5/R6</f>
+        <v>2.1934141668620697</v>
+      </c>
+      <c r="T7">
+        <f>(2*POWER(T6,3))/((U6)*1000000000)</f>
+        <v>0.69686411149825789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>7500450</v>
       </c>
-      <c r="C7" s="1">
-        <v>450027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="E8">
+        <v>57153429</v>
+      </c>
+      <c r="F8">
+        <v>263565813</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <v>300018</v>
+      </c>
+      <c r="I8">
+        <v>150009</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1950117</v>
+      </c>
+      <c r="K8">
+        <v>50103006</v>
+      </c>
+      <c r="L8">
+        <v>68404104</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>150009</v>
+      </c>
+      <c r="P8">
+        <v>300018</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>B8*64/(4*3*B2*B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>C8*64/(4*3*C2*C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>D8*64/(4*3*D2*D2)</f>
+        <v>111.11777777777777</v>
+      </c>
+      <c r="E9">
+        <f>E8*64/(4*3*E2*E2)</f>
+        <v>476.27857499999999</v>
+      </c>
+      <c r="F9">
+        <f>F8*64/(4*3*F2*F2)</f>
+        <v>1405.684336</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:L9" si="8">H8*64/(4*3*H2*H2)</f>
+        <v>40.002400000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>5.0003000000000002</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>28.890622222222223</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>417.52505000000002</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>364.821888</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9" si="9">N8*64/(4*3*N2*N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9" si="10">O8*64/(4*3*O2*O2)</f>
+        <v>5.0003000000000002</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="11">P8*64/(4*3*P2*P2)</f>
+        <v>4.4447111111111113</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="12">Q8*64/(4*3*Q2*Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9" si="13">R8*64/(4*3*R2*R2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>B8/B5</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>C8/C5</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>D8/D5</f>
+        <v>3.9311348591593376E-3</v>
+      </c>
+      <c r="E11">
+        <f>E8/E5</f>
+        <v>1.2314895281189399E-2</v>
+      </c>
+      <c r="F11">
+        <f>F8/F5</f>
+        <v>2.9397111259469783E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:R11" si="14">H8/H5</f>
+        <v>4.120871196602276E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="14"/>
+        <v>2.8674063819074147E-4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="14"/>
+        <v>1.5454445793399252E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="14"/>
+        <v>1.8530269465971683E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="14"/>
+        <v>1.33575570229496E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="14"/>
+        <v>5.9720362326542314E-4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="14"/>
+        <v>4.3979646109896457E-4</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <f>0.009/C3</f>
+        <v>5.389221556886227E-2</v>
+      </c>
+      <c r="D13">
+        <f>0.889/D3</f>
+        <v>1.065947242206235</v>
+      </c>
+      <c r="E13">
+        <f>5.406/E3</f>
+        <v>0.91117478510028649</v>
+      </c>
+      <c r="F13">
+        <f>13.215/F3</f>
+        <v>0.8947190250507786</v>
+      </c>
+      <c r="I13" s="5">
+        <f>0.009/I3</f>
+        <v>2.5139664804469272E-2</v>
+      </c>
+      <c r="J13">
+        <f>0.889/J3</f>
+        <v>1.2791366906474821</v>
+      </c>
+      <c r="K13">
+        <f>5.406/K3</f>
+        <v>0.97107957607328899</v>
+      </c>
+      <c r="L13">
+        <f>13.215/L3</f>
+        <v>0.98187086707779181</v>
+      </c>
+      <c r="O13" s="5">
+        <f>0.009/O3</f>
+        <v>0.15517241379310343</v>
+      </c>
+      <c r="P13">
+        <f>0.889/P3</f>
+        <v>8.7156862745098049</v>
+      </c>
+      <c r="Q13">
+        <f>5.406/Q3</f>
+        <v>34.653846153846153</v>
+      </c>
+      <c r="R13">
+        <f>13.215/R3</f>
+        <v>41.296875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C13/4</f>
+        <v>1.3473053892215568E-2</v>
+      </c>
+      <c r="D14">
+        <f>D13/4</f>
+        <v>0.26648681055155876</v>
+      </c>
+      <c r="E14">
+        <f>E13/4</f>
+        <v>0.22779369627507162</v>
+      </c>
+      <c r="F14">
+        <f>F13/4</f>
+        <v>0.22367975626269465</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:L14" si="15">H13/4</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="15"/>
+        <v>6.2849162011173179E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="15"/>
+        <v>0.31978417266187054</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="15"/>
+        <v>0.24276989401832225</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="15"/>
+        <v>0.24546771676944795</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14" si="16">N13/4</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" ref="O14" si="17">O13/4</f>
+        <v>3.8793103448275856E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14" si="18">P13/4</f>
+        <v>2.1789215686274512</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14" si="19">Q13/4</f>
+        <v>8.6634615384615383</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14" si="20">R13/4</f>
+        <v>10.32421875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>B7*64/(4*3*600*600)</f>
-        <v>111.11777777777777</v>
-      </c>
-      <c r="C8">
-        <f>C7*64/(4*3*600*600)</f>
-        <v>6.6670666666666669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>(4*B2-B5*K1)/(4*B2)</f>
-        <v>-0.26686910624816162</v>
-      </c>
-      <c r="D10" s="1">
-        <f>B2/K1</f>
-        <v>544000000</v>
+      <c r="B15">
+        <f>(4*B3-B6*$X$2)/(4*B3)</f>
+        <v>0.92639326528637767</v>
+      </c>
+      <c r="C15">
+        <f>(4*C3-C6*$X$2)/(4*C3)</f>
+        <v>0.7207384351884466</v>
+      </c>
+      <c r="D15">
+        <f>(4*D3-D6*$X$2)/(4*D3)</f>
+        <v>0.72159062455917622</v>
+      </c>
+      <c r="E15">
+        <f>(4*E3-E6*$X$2)/(4*E3)</f>
+        <v>0.72254388004283121</v>
+      </c>
+      <c r="F15">
+        <f>(4*F3-F6*$X$2)/(4*F3)</f>
+        <v>0.72042830322792628</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:L15" si="21">(4*H3-H6*$X$2)/(4*H3)</f>
+        <v>0.91665699411764701</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="21"/>
+        <v>0.79450002916529738</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="21"/>
+        <v>0.75163995990266619</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="21"/>
+        <v>0.72654749821690845</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="21"/>
+        <v>0.7236047566192314</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:R15" si="22">(4*N3-N6*$X$2)/(4*N3)</f>
+        <v>0.85717903799019612</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="22"/>
+        <v>0.82158215010141988</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="22"/>
+        <v>0.78576551975201847</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="22"/>
+        <v>0.77631286199095029</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="22"/>
+        <v>0.75096124103860296</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/walkowiak.xlsx
+++ b/walkowiak.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>czas wykonania</t>
   </si>
@@ -54,9 +54,6 @@
     <t>L3</t>
   </si>
   <si>
-    <t>DTLB</t>
-  </si>
-  <si>
     <t>przyspieszenie</t>
   </si>
   <si>
@@ -73,6 +70,24 @@
   </si>
   <si>
     <t>6 pętli</t>
+  </si>
+  <si>
+    <t>DTLB1</t>
+  </si>
+  <si>
+    <t>l1m_l2h</t>
+  </si>
+  <si>
+    <t>l1m_l2m</t>
+  </si>
+  <si>
+    <t>data acc</t>
+  </si>
+  <si>
+    <t>DTLB2</t>
+  </si>
+  <si>
+    <t>L1M_L2H</t>
   </si>
 </sst>
 </file>
@@ -430,15 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="32.125" customWidth="1"/>
+    <col min="1" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="6" width="16.25" customWidth="1"/>
     <col min="7" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
@@ -450,21 +466,21 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="H1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="N1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -940,7 +956,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1010,186 +1026,464 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>(B20+B21)/B22</f>
+        <v>0.29359636652760884</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="15">(C20+C21)/C22</f>
+        <v>0.38661032912776788</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="15"/>
+        <v>0.57586655996657521</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="15"/>
+        <v>0.71211776711775643</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="15"/>
+        <v>0.81639200821768521</v>
+      </c>
+      <c r="H12">
+        <f>(H20+H21)/H22</f>
+        <v>0.2917766291373865</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:L12" si="16">(I20+I21)/I22</f>
+        <v>0.27795542177140364</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="16"/>
+        <v>0.42308500819875244</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="16"/>
+        <v>0.6109855902398309</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="16"/>
+        <v>0.7804221918867793</v>
+      </c>
+      <c r="N12">
+        <f>(N20+N21)/N22</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:R12" si="17">(O20+O21)/O22</f>
+        <v>2.7509532348142348E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="17"/>
+        <v>1.0397572340460889E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="17"/>
+        <v>3.708370077767098E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="17"/>
+        <v>2.7843187029737159E-2</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <f>B21/(B20+B21)</f>
+        <v>9.9012694828860704E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="18">C21/(C20+C21)</f>
+        <v>2.9326346521328091E-3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="18"/>
+        <v>8.6605772704426986E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="18"/>
+        <v>0.83025631274605227</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="18"/>
+        <v>0.98810651431269869</v>
+      </c>
+      <c r="H13">
+        <f>H21/(H20+H21)</f>
+        <v>2.9127019509857452E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:L13" si="19">I21/(I20+I21)</f>
+        <v>9.0092634521948354E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="19"/>
+        <v>3.7053336966647111E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="19"/>
+        <v>0.95537593612220784</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="19"/>
+        <v>0.99223710540685839</v>
+      </c>
+      <c r="N13" t="e">
+        <f>N21/(N20+N21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:R13" si="20">O21/(O20+O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="20"/>
+        <v>0.13043801510600814</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="20"/>
+        <v>2.7778547451939868E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="20"/>
+        <v>9.0092634521948354E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
         <f>0.009/C3</f>
         <v>5.389221556886227E-2</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>0.889/D3</f>
         <v>1.065947242206235</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f>5.406/E3</f>
         <v>0.91117478510028649</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f>13.215/F3</f>
         <v>0.8947190250507786</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="5">
         <f>0.009/I3</f>
         <v>2.5139664804469272E-2</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f>0.889/J3</f>
         <v>1.2791366906474821</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f>5.406/K3</f>
         <v>0.97107957607328899</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f>13.215/L3</f>
         <v>0.98187086707779181</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O14" s="5">
         <f>0.009/O3</f>
         <v>0.15517241379310343</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <f>0.889/P3</f>
         <v>8.7156862745098049</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <f>5.406/Q3</f>
         <v>34.653846153846153</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <f>13.215/R3</f>
         <v>41.296875</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
-        <f>C13/4</f>
-        <v>1.3473053892215568E-2</v>
-      </c>
-      <c r="D14">
-        <f>D13/4</f>
-        <v>0.26648681055155876</v>
-      </c>
-      <c r="E14">
-        <f>E13/4</f>
-        <v>0.22779369627507162</v>
-      </c>
-      <c r="F14">
-        <f>F13/4</f>
-        <v>0.22367975626269465</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:L14" si="15">H13/4</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="15"/>
-        <v>6.2849162011173179E-3</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="15"/>
-        <v>0.31978417266187054</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="15"/>
-        <v>0.24276989401832225</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="15"/>
-        <v>0.24546771676944795</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14" si="16">N13/4</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" ref="O14" si="17">O13/4</f>
-        <v>3.8793103448275856E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ref="P14" si="18">P13/4</f>
-        <v>2.1789215686274512</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14" si="19">Q13/4</f>
-        <v>8.6634615384615383</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ref="R14" si="20">R13/4</f>
-        <v>10.32421875</v>
-      </c>
-    </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <f>C14/4</f>
+        <v>1.3473053892215568E-2</v>
+      </c>
+      <c r="D15">
+        <f>D14/4</f>
+        <v>0.26648681055155876</v>
+      </c>
+      <c r="E15">
+        <f>E14/4</f>
+        <v>0.22779369627507162</v>
+      </c>
+      <c r="F15">
+        <f>F14/4</f>
+        <v>0.22367975626269465</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:L15" si="21">H14/4</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="21"/>
+        <v>6.2849162011173179E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="21"/>
+        <v>0.31978417266187054</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="21"/>
+        <v>0.24276989401832225</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="21"/>
+        <v>0.24546771676944795</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="22">N14/4</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" ref="O15" si="23">O14/4</f>
+        <v>3.8793103448275856E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15" si="24">P14/4</f>
+        <v>2.1789215686274512</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15" si="25">Q14/4</f>
+        <v>8.6634615384615383</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15" si="26">R14/4</f>
+        <v>10.32421875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f>(4*B3-B6*$X$2)/(4*B3)</f>
         <v>0.92639326528637767</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f>(4*C3-C6*$X$2)/(4*C3)</f>
         <v>0.7207384351884466</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>(4*D3-D6*$X$2)/(4*D3)</f>
         <v>0.72159062455917622</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f>(4*E3-E6*$X$2)/(4*E3)</f>
         <v>0.72254388004283121</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f>(4*F3-F6*$X$2)/(4*F3)</f>
         <v>0.72042830322792628</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:L15" si="21">(4*H3-H6*$X$2)/(4*H3)</f>
+      <c r="H16">
+        <f t="shared" ref="H16:L16" si="27">(4*H3-H6*$X$2)/(4*H3)</f>
         <v>0.91665699411764701</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="21"/>
+      <c r="I16">
+        <f t="shared" si="27"/>
         <v>0.79450002916529738</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="21"/>
+      <c r="J16">
+        <f t="shared" si="27"/>
         <v>0.75163995990266619</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="21"/>
+      <c r="K16">
+        <f t="shared" si="27"/>
         <v>0.72654749821690845</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="21"/>
+      <c r="L16">
+        <f t="shared" si="27"/>
         <v>0.7236047566192314</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15:R15" si="22">(4*N3-N6*$X$2)/(4*N3)</f>
+      <c r="N16">
+        <f t="shared" ref="N16:R16" si="28">(4*N3-N6*$X$2)/(4*N3)</f>
         <v>0.85717903799019612</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="22"/>
+      <c r="O16">
+        <f t="shared" si="28"/>
         <v>0.82158215010141988</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="22"/>
+      <c r="P16">
+        <f t="shared" si="28"/>
         <v>0.78576551975201847</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="22"/>
+      <c r="Q16">
+        <f t="shared" si="28"/>
         <v>0.77631286199095029</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="22"/>
+      <c r="R16">
+        <f t="shared" si="28"/>
         <v>0.75096124103860296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10000015</v>
+      </c>
+      <c r="C20">
+        <v>68000102</v>
+      </c>
+      <c r="D20">
+        <v>270000405</v>
+      </c>
+      <c r="E20">
+        <v>146000219</v>
+      </c>
+      <c r="F20" s="4">
+        <v>22000033</v>
+      </c>
+      <c r="H20">
+        <v>10000015</v>
+      </c>
+      <c r="I20">
+        <v>66000099</v>
+      </c>
+      <c r="J20" s="4">
+        <v>242000363</v>
+      </c>
+      <c r="K20">
+        <v>34000051</v>
+      </c>
+      <c r="L20">
+        <v>14000021</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2000003</v>
+      </c>
+      <c r="P20">
+        <v>2000003</v>
+      </c>
+      <c r="Q20">
+        <v>14000021</v>
+      </c>
+      <c r="R20">
+        <v>22000033</v>
+      </c>
+      <c r="S20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>100003</v>
+      </c>
+      <c r="C21">
+        <v>200006</v>
+      </c>
+      <c r="D21">
+        <v>25600768</v>
+      </c>
+      <c r="E21">
+        <v>714121423</v>
+      </c>
+      <c r="F21">
+        <v>1827754831</v>
+      </c>
+      <c r="H21">
+        <v>300009</v>
+      </c>
+      <c r="I21" s="4">
+        <v>600018</v>
+      </c>
+      <c r="J21">
+        <v>900027</v>
+      </c>
+      <c r="K21">
+        <v>727921837</v>
+      </c>
+      <c r="L21">
+        <v>1789453682</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>300009</v>
+      </c>
+      <c r="Q21">
+        <v>400012</v>
+      </c>
+      <c r="R21">
+        <v>200006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>34401032</v>
+      </c>
+      <c r="C22">
+        <v>176405292</v>
+      </c>
+      <c r="D22">
+        <v>513315399</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1207836234</v>
+      </c>
+      <c r="F22">
+        <v>2265767971</v>
+      </c>
+      <c r="H22">
+        <v>35301059</v>
+      </c>
+      <c r="I22">
+        <v>239607188</v>
+      </c>
+      <c r="J22">
+        <v>574117223</v>
+      </c>
+      <c r="K22">
+        <v>1247037410</v>
+      </c>
+      <c r="L22">
+        <v>2310869324</v>
+      </c>
+      <c r="N22" s="4">
+        <v>26300789</v>
+      </c>
+      <c r="O22">
+        <v>72702181</v>
+      </c>
+      <c r="P22">
+        <v>221206636</v>
+      </c>
+      <c r="Q22">
+        <v>388311649</v>
+      </c>
+      <c r="R22">
+        <v>797323919</v>
       </c>
     </row>
   </sheetData>
